--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.984295666666667</v>
+        <v>2.432740666666667</v>
       </c>
       <c r="H2">
-        <v>17.952887</v>
+        <v>7.298222000000001</v>
       </c>
       <c r="I2">
-        <v>0.04926888188268459</v>
+        <v>0.02694791517840089</v>
       </c>
       <c r="J2">
-        <v>0.04926888188268458</v>
+        <v>0.02694791517840089</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N2">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O2">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P2">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q2">
-        <v>50.2344837745969</v>
+        <v>26.1367705121169</v>
       </c>
       <c r="R2">
-        <v>452.110353971372</v>
+        <v>235.2309346090521</v>
       </c>
       <c r="S2">
-        <v>0.004713818617323646</v>
+        <v>0.003207667337209366</v>
       </c>
       <c r="T2">
-        <v>0.004713818617323644</v>
+        <v>0.003207667337209366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.984295666666667</v>
+        <v>2.432740666666667</v>
       </c>
       <c r="H3">
-        <v>17.952887</v>
+        <v>7.298222000000001</v>
       </c>
       <c r="I3">
-        <v>0.04926888188268459</v>
+        <v>0.02694791517840089</v>
       </c>
       <c r="J3">
-        <v>0.04926888188268458</v>
+        <v>0.02694791517840089</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>32.186352</v>
       </c>
       <c r="O3">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P3">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q3">
-        <v>64.20421559980267</v>
+        <v>26.10034914068267</v>
       </c>
       <c r="R3">
-        <v>577.837940398224</v>
+        <v>234.903142266144</v>
       </c>
       <c r="S3">
-        <v>0.006024686710487445</v>
+        <v>0.003203197479562961</v>
       </c>
       <c r="T3">
-        <v>0.006024686710487443</v>
+        <v>0.003203197479562961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.984295666666667</v>
+        <v>2.432740666666667</v>
       </c>
       <c r="H4">
-        <v>17.952887</v>
+        <v>7.298222000000001</v>
       </c>
       <c r="I4">
-        <v>0.04926888188268459</v>
+        <v>0.02694791517840089</v>
       </c>
       <c r="J4">
-        <v>0.04926888188268458</v>
+        <v>0.02694791517840089</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N4">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O4">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P4">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q4">
-        <v>14.79436776807244</v>
+        <v>10.989166408504</v>
       </c>
       <c r="R4">
-        <v>133.149309912652</v>
+        <v>98.902497676536</v>
       </c>
       <c r="S4">
-        <v>0.001388248887548808</v>
+        <v>0.00134865897588132</v>
       </c>
       <c r="T4">
-        <v>0.001388248887548807</v>
+        <v>0.00134865897588132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.984295666666667</v>
+        <v>2.432740666666667</v>
       </c>
       <c r="H5">
-        <v>17.952887</v>
+        <v>7.298222000000001</v>
       </c>
       <c r="I5">
-        <v>0.04926888188268459</v>
+        <v>0.02694791517840089</v>
       </c>
       <c r="J5">
-        <v>0.04926888188268458</v>
+        <v>0.02694791517840089</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N5">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O5">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P5">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q5">
-        <v>88.16514395167466</v>
+        <v>11.67680326351689</v>
       </c>
       <c r="R5">
-        <v>793.4862955650721</v>
+        <v>105.091229371652</v>
       </c>
       <c r="S5">
-        <v>0.008273091823202641</v>
+        <v>0.001433050055439663</v>
       </c>
       <c r="T5">
-        <v>0.00827309182320264</v>
+        <v>0.001433050055439663</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.984295666666667</v>
+        <v>2.432740666666667</v>
       </c>
       <c r="H6">
-        <v>17.952887</v>
+        <v>7.298222000000001</v>
       </c>
       <c r="I6">
-        <v>0.04926888188268459</v>
+        <v>0.02694791517840089</v>
       </c>
       <c r="J6">
-        <v>0.04926888188268458</v>
+        <v>0.02694791517840089</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N6">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O6">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P6">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q6">
-        <v>290.0491543048926</v>
+        <v>136.7346656999987</v>
       </c>
       <c r="R6">
-        <v>2610.442388744033</v>
+        <v>1230.611991299988</v>
       </c>
       <c r="S6">
-        <v>0.02721714250386666</v>
+        <v>0.01678093017753647</v>
       </c>
       <c r="T6">
-        <v>0.02721714250386666</v>
+        <v>0.01678093017753647</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.984295666666667</v>
+        <v>2.432740666666667</v>
       </c>
       <c r="H7">
-        <v>17.952887</v>
+        <v>7.298222000000001</v>
       </c>
       <c r="I7">
-        <v>0.04926888188268459</v>
+        <v>0.02694791517840089</v>
       </c>
       <c r="J7">
-        <v>0.04926888188268458</v>
+        <v>0.02694791517840089</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N7">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O7">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P7">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q7">
-        <v>17.60398859927678</v>
+        <v>7.939713819134001</v>
       </c>
       <c r="R7">
-        <v>158.435897393491</v>
+        <v>71.45742437220601</v>
       </c>
       <c r="S7">
-        <v>0.001651893340255391</v>
+        <v>0.0009744111527711171</v>
       </c>
       <c r="T7">
-        <v>0.00165189334025539</v>
+        <v>0.0009744111527711171</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>106.465133</v>
       </c>
       <c r="I8">
-        <v>0.292176855031801</v>
+        <v>0.3931112774510243</v>
       </c>
       <c r="J8">
-        <v>0.292176855031801</v>
+        <v>0.3931112774510243</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N8">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O8">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P8">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q8">
-        <v>297.903116988861</v>
+        <v>381.2784468275976</v>
       </c>
       <c r="R8">
-        <v>2681.128052899748</v>
+        <v>3431.506021448379</v>
       </c>
       <c r="S8">
-        <v>0.02795412938494171</v>
+        <v>0.04679286676614537</v>
       </c>
       <c r="T8">
-        <v>0.0279541293849417</v>
+        <v>0.04679286676614537</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>106.465133</v>
       </c>
       <c r="I9">
-        <v>0.292176855031801</v>
+        <v>0.3931112774510243</v>
       </c>
       <c r="J9">
-        <v>0.292176855031801</v>
+        <v>0.3931112774510243</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>32.186352</v>
       </c>
       <c r="O9">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P9">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q9">
         <v>380.7471384960907</v>
@@ -1013,10 +1013,10 @@
         <v>3426.724246464816</v>
       </c>
       <c r="S9">
-        <v>0.03572790671023431</v>
+        <v>0.04672766129708514</v>
       </c>
       <c r="T9">
-        <v>0.0357279067102343</v>
+        <v>0.04672766129708514</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>106.465133</v>
       </c>
       <c r="I10">
-        <v>0.292176855031801</v>
+        <v>0.3931112774510243</v>
       </c>
       <c r="J10">
-        <v>0.292176855031801</v>
+        <v>0.3931112774510243</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N10">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O10">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P10">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q10">
-        <v>87.73431994969646</v>
+        <v>160.307957642356</v>
       </c>
       <c r="R10">
-        <v>789.608879547268</v>
+        <v>1442.771618781204</v>
       </c>
       <c r="S10">
-        <v>0.008232664888381787</v>
+        <v>0.01967399145145879</v>
       </c>
       <c r="T10">
-        <v>0.008232664888381785</v>
+        <v>0.01967399145145879</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>106.465133</v>
       </c>
       <c r="I11">
-        <v>0.292176855031801</v>
+        <v>0.3931112774510243</v>
       </c>
       <c r="J11">
-        <v>0.292176855031801</v>
+        <v>0.3931112774510243</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N11">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O11">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P11">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q11">
-        <v>522.8414670453387</v>
+        <v>170.3390788146976</v>
       </c>
       <c r="R11">
-        <v>4705.573203408048</v>
+        <v>1533.051709332278</v>
       </c>
       <c r="S11">
-        <v>0.04906151424439321</v>
+        <v>0.02090507314631442</v>
       </c>
       <c r="T11">
-        <v>0.04906151424439319</v>
+        <v>0.02090507314631442</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>106.465133</v>
       </c>
       <c r="I12">
-        <v>0.292176855031801</v>
+        <v>0.3931112774510243</v>
       </c>
       <c r="J12">
-        <v>0.292176855031801</v>
+        <v>0.3931112774510243</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N12">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O12">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P12">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q12">
-        <v>1720.064399091239</v>
+        <v>1994.660393923465</v>
       </c>
       <c r="R12">
-        <v>15480.57959182115</v>
+        <v>17951.94354531118</v>
       </c>
       <c r="S12">
-        <v>0.161404497034606</v>
+        <v>0.2447971524043984</v>
       </c>
       <c r="T12">
-        <v>0.161404497034606</v>
+        <v>0.2447971524043984</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>106.465133</v>
       </c>
       <c r="I13">
-        <v>0.292176855031801</v>
+        <v>0.3931112774510243</v>
       </c>
       <c r="J13">
-        <v>0.292176855031801</v>
+        <v>0.3931112774510243</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N13">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O13">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P13">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q13">
-        <v>104.3960777758188</v>
+        <v>115.823098795301</v>
       </c>
       <c r="R13">
-        <v>939.564699982369</v>
+        <v>1042.407889157709</v>
       </c>
       <c r="S13">
-        <v>0.009796142769243989</v>
+        <v>0.01421453238562218</v>
       </c>
       <c r="T13">
-        <v>0.009796142769243987</v>
+        <v>0.01421453238562218</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.415392</v>
+        <v>6.270672333333334</v>
       </c>
       <c r="H14">
-        <v>82.24617600000001</v>
+        <v>18.812017</v>
       </c>
       <c r="I14">
-        <v>0.2257117270691053</v>
+        <v>0.06946138915075967</v>
       </c>
       <c r="J14">
-        <v>0.2257117270691052</v>
+        <v>0.06946138915075967</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N14">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O14">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P14">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q14">
-        <v>230.135364512384</v>
+        <v>67.37056932483578</v>
       </c>
       <c r="R14">
-        <v>2071.218280611456</v>
+        <v>606.3351239235221</v>
       </c>
       <c r="S14">
-        <v>0.02159505352161338</v>
+        <v>0.008268136058060075</v>
       </c>
       <c r="T14">
-        <v>0.02159505352161338</v>
+        <v>0.008268136058060075</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.415392</v>
+        <v>6.270672333333334</v>
       </c>
       <c r="H15">
-        <v>82.24617600000001</v>
+        <v>18.812017</v>
       </c>
       <c r="I15">
-        <v>0.2257117270691053</v>
+        <v>0.06946138915075967</v>
       </c>
       <c r="J15">
-        <v>0.2257117270691052</v>
+        <v>0.06946138915075967</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>32.186352</v>
       </c>
       <c r="O15">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P15">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q15">
-        <v>294.133819043328</v>
+        <v>67.27668899910933</v>
       </c>
       <c r="R15">
-        <v>2647.204371389952</v>
+        <v>605.490200991984</v>
       </c>
       <c r="S15">
-        <v>0.02760043237255442</v>
+        <v>0.008256614479512347</v>
       </c>
       <c r="T15">
-        <v>0.02760043237255441</v>
+        <v>0.008256614479512347</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.415392</v>
+        <v>6.270672333333334</v>
       </c>
       <c r="H16">
-        <v>82.24617600000001</v>
+        <v>18.812017</v>
       </c>
       <c r="I16">
-        <v>0.2257117270691053</v>
+        <v>0.06946138915075967</v>
       </c>
       <c r="J16">
-        <v>0.2257117270691052</v>
+        <v>0.06946138915075967</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N16">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O16">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P16">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q16">
-        <v>67.776295548544</v>
+        <v>28.325855981444</v>
       </c>
       <c r="R16">
-        <v>609.986659936896</v>
+        <v>254.932703832996</v>
       </c>
       <c r="S16">
-        <v>0.006359877513691443</v>
+        <v>0.003476325546342927</v>
       </c>
       <c r="T16">
-        <v>0.006359877513691442</v>
+        <v>0.003476325546342927</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.415392</v>
+        <v>6.270672333333334</v>
       </c>
       <c r="H17">
-        <v>82.24617600000001</v>
+        <v>18.812017</v>
       </c>
       <c r="I17">
-        <v>0.2257117270691053</v>
+        <v>0.06946138915075967</v>
       </c>
       <c r="J17">
-        <v>0.2257117270691052</v>
+        <v>0.06946138915075967</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N17">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O17">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P17">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q17">
-        <v>403.904171318784</v>
+        <v>30.09832004273578</v>
       </c>
       <c r="R17">
-        <v>3635.137541869056</v>
+        <v>270.884880384622</v>
       </c>
       <c r="S17">
-        <v>0.03790087723246324</v>
+        <v>0.003693853380286579</v>
       </c>
       <c r="T17">
-        <v>0.03790087723246323</v>
+        <v>0.003693853380286579</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.415392</v>
+        <v>6.270672333333334</v>
       </c>
       <c r="H18">
-        <v>82.24617600000001</v>
+        <v>18.812017</v>
       </c>
       <c r="I18">
-        <v>0.2257117270691053</v>
+        <v>0.06946138915075967</v>
       </c>
       <c r="J18">
-        <v>0.2257117270691052</v>
+        <v>0.06946138915075967</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N18">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O18">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P18">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q18">
-        <v>1328.779810935776</v>
+        <v>352.4495220394354</v>
       </c>
       <c r="R18">
-        <v>11959.01829842198</v>
+        <v>3172.045698354918</v>
       </c>
       <c r="S18">
-        <v>0.1246877949262477</v>
+        <v>0.04325480148118665</v>
       </c>
       <c r="T18">
-        <v>0.1246877949262477</v>
+        <v>0.04325480148118665</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.415392</v>
+        <v>6.270672333333334</v>
       </c>
       <c r="H19">
-        <v>82.24617600000001</v>
+        <v>18.812017</v>
       </c>
       <c r="I19">
-        <v>0.2257117270691053</v>
+        <v>0.06946138915075967</v>
       </c>
       <c r="J19">
-        <v>0.2257117270691052</v>
+        <v>0.06946138915075967</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N19">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O19">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P19">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q19">
-        <v>80.64779467715199</v>
+        <v>20.465536858249</v>
       </c>
       <c r="R19">
-        <v>725.8301520943679</v>
+        <v>184.189831724241</v>
       </c>
       <c r="S19">
-        <v>0.007567691502535092</v>
+        <v>0.002511658205371096</v>
       </c>
       <c r="T19">
-        <v>0.007567691502535091</v>
+        <v>0.002511658205371096</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.60556166666667</v>
+        <v>0.4745936666666667</v>
       </c>
       <c r="H20">
-        <v>34.816685</v>
+        <v>1.423781</v>
       </c>
       <c r="I20">
-        <v>0.09554892986357215</v>
+        <v>0.005257161212774673</v>
       </c>
       <c r="J20">
-        <v>0.09554892986357214</v>
+        <v>0.005257161212774673</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N20">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O20">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P20">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q20">
-        <v>97.42155663976223</v>
+        <v>5.098918237416224</v>
       </c>
       <c r="R20">
-        <v>876.79400975786</v>
+        <v>45.89026413674601</v>
       </c>
       <c r="S20">
-        <v>0.009141679438326153</v>
+        <v>0.0006257710177957437</v>
       </c>
       <c r="T20">
-        <v>0.009141679438326153</v>
+        <v>0.0006257710177957437</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.60556166666667</v>
+        <v>0.4745936666666667</v>
       </c>
       <c r="H21">
-        <v>34.816685</v>
+        <v>1.423781</v>
       </c>
       <c r="I21">
-        <v>0.09554892986357215</v>
+        <v>0.005257161212774673</v>
       </c>
       <c r="J21">
-        <v>0.09554892986357214</v>
+        <v>0.005257161212774673</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>32.186352</v>
       </c>
       <c r="O21">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P21">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q21">
-        <v>124.5135643203467</v>
+        <v>5.091812937434667</v>
       </c>
       <c r="R21">
-        <v>1120.62207888312</v>
+        <v>45.826316436912</v>
       </c>
       <c r="S21">
-        <v>0.01168389348313324</v>
+        <v>0.0006248990111084085</v>
       </c>
       <c r="T21">
-        <v>0.01168389348313324</v>
+        <v>0.0006248990111084085</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.60556166666667</v>
+        <v>0.4745936666666667</v>
       </c>
       <c r="H22">
-        <v>34.816685</v>
+        <v>1.423781</v>
       </c>
       <c r="I22">
-        <v>0.09554892986357215</v>
+        <v>0.005257161212774673</v>
       </c>
       <c r="J22">
-        <v>0.09554892986357214</v>
+        <v>0.005257161212774673</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N22">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O22">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P22">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q22">
-        <v>28.69125407825111</v>
+        <v>2.143832612692</v>
       </c>
       <c r="R22">
-        <v>258.22128670426</v>
+        <v>19.294493514228</v>
       </c>
       <c r="S22">
-        <v>0.002692281426345927</v>
+        <v>0.0002631044965937294</v>
       </c>
       <c r="T22">
-        <v>0.002692281426345926</v>
+        <v>0.0002631044965937294</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.60556166666667</v>
+        <v>0.4745936666666667</v>
       </c>
       <c r="H23">
-        <v>34.816685</v>
+        <v>1.423781</v>
       </c>
       <c r="I23">
-        <v>0.09554892986357215</v>
+        <v>0.005257161212774673</v>
       </c>
       <c r="J23">
-        <v>0.09554892986357214</v>
+        <v>0.005257161212774673</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N23">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O23">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P23">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q23">
-        <v>170.9818618557067</v>
+        <v>2.277980942116223</v>
       </c>
       <c r="R23">
-        <v>1538.83675670136</v>
+        <v>20.501828479046</v>
       </c>
       <c r="S23">
-        <v>0.01604430707910778</v>
+        <v>0.0002795680154678685</v>
       </c>
       <c r="T23">
-        <v>0.01604430707910778</v>
+        <v>0.0002795680154678685</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.60556166666667</v>
+        <v>0.4745936666666667</v>
       </c>
       <c r="H24">
-        <v>34.816685</v>
+        <v>1.423781</v>
       </c>
       <c r="I24">
-        <v>0.09554892986357215</v>
+        <v>0.005257161212774673</v>
       </c>
       <c r="J24">
-        <v>0.09554892986357214</v>
+        <v>0.005257161212774673</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N24">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O24">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P24">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q24">
-        <v>562.5028464753238</v>
+        <v>26.67502017135267</v>
       </c>
       <c r="R24">
-        <v>5062.525618277915</v>
+        <v>240.075181542174</v>
       </c>
       <c r="S24">
-        <v>0.05278319175947784</v>
+        <v>0.00327372468926035</v>
       </c>
       <c r="T24">
-        <v>0.05278319175947783</v>
+        <v>0.00327372468926035</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.60556166666667</v>
+        <v>0.4745936666666667</v>
       </c>
       <c r="H25">
-        <v>34.816685</v>
+        <v>1.423781</v>
       </c>
       <c r="I25">
-        <v>0.09554892986357215</v>
+        <v>0.005257161212774673</v>
       </c>
       <c r="J25">
-        <v>0.09554892986357214</v>
+        <v>0.005257161212774673</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N25">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O25">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P25">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q25">
-        <v>34.14005367518944</v>
+        <v>1.548927078557</v>
       </c>
       <c r="R25">
-        <v>307.260483076705</v>
+        <v>13.940343707013</v>
       </c>
       <c r="S25">
-        <v>0.00320357667718121</v>
+        <v>0.0001900939825485733</v>
       </c>
       <c r="T25">
-        <v>0.00320357667718121</v>
+        <v>0.0001900939825485733</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.108541333333332</v>
+        <v>4.608650333333333</v>
       </c>
       <c r="H26">
-        <v>15.325624</v>
+        <v>13.825951</v>
       </c>
       <c r="I26">
-        <v>0.04205877075004348</v>
+        <v>0.05105086619846956</v>
       </c>
       <c r="J26">
-        <v>0.04205877075004348</v>
+        <v>0.05105086619846956</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N26">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O26">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P26">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q26">
-        <v>42.88306444326044</v>
+        <v>49.51421159821845</v>
       </c>
       <c r="R26">
-        <v>385.9475799893439</v>
+        <v>445.627904383966</v>
       </c>
       <c r="S26">
-        <v>0.00402398855032631</v>
+        <v>0.006076692573692218</v>
       </c>
       <c r="T26">
-        <v>0.00402398855032631</v>
+        <v>0.006076692573692218</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.108541333333332</v>
+        <v>4.608650333333333</v>
       </c>
       <c r="H27">
-        <v>15.325624</v>
+        <v>13.825951</v>
       </c>
       <c r="I27">
-        <v>0.04205877075004348</v>
+        <v>0.05105086619846956</v>
       </c>
       <c r="J27">
-        <v>0.04205877075004348</v>
+        <v>0.05105086619846956</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>32.186352</v>
       </c>
       <c r="O27">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P27">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q27">
-        <v>54.80843652040532</v>
+        <v>49.44521395786133</v>
       </c>
       <c r="R27">
-        <v>493.2759286836479</v>
+        <v>445.006925620752</v>
       </c>
       <c r="S27">
-        <v>0.0051430214673956</v>
+        <v>0.006068224753338688</v>
       </c>
       <c r="T27">
-        <v>0.0051430214673956</v>
+        <v>0.006068224753338688</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.108541333333332</v>
+        <v>4.608650333333333</v>
       </c>
       <c r="H28">
-        <v>15.325624</v>
+        <v>13.825951</v>
       </c>
       <c r="I28">
-        <v>0.04205877075004348</v>
+        <v>0.05105086619846956</v>
       </c>
       <c r="J28">
-        <v>0.04205877075004348</v>
+        <v>0.05105086619846956</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N28">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O28">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P28">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q28">
-        <v>12.62932907287822</v>
+        <v>20.818176851132</v>
       </c>
       <c r="R28">
-        <v>113.663961655904</v>
+        <v>187.363591660188</v>
       </c>
       <c r="S28">
-        <v>0.001185089644300178</v>
+        <v>0.002554936382621041</v>
       </c>
       <c r="T28">
-        <v>0.001185089644300178</v>
+        <v>0.002554936382621041</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.108541333333332</v>
+        <v>4.608650333333333</v>
       </c>
       <c r="H29">
-        <v>15.325624</v>
+        <v>13.825951</v>
       </c>
       <c r="I29">
-        <v>0.04205877075004348</v>
+        <v>0.05105086619846956</v>
       </c>
       <c r="J29">
-        <v>0.04205877075004348</v>
+        <v>0.05105086619846956</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N29">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O29">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P29">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q29">
-        <v>75.26287254574932</v>
+        <v>22.12085488191844</v>
       </c>
       <c r="R29">
-        <v>677.3658529117439</v>
+        <v>199.087693937266</v>
       </c>
       <c r="S29">
-        <v>0.00706239027738982</v>
+        <v>0.002714809147632952</v>
       </c>
       <c r="T29">
-        <v>0.00706239027738982</v>
+        <v>0.002714809147632952</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.108541333333332</v>
+        <v>4.608650333333333</v>
       </c>
       <c r="H30">
-        <v>15.325624</v>
+        <v>13.825951</v>
       </c>
       <c r="I30">
-        <v>0.04205877075004348</v>
+        <v>0.05105086619846956</v>
       </c>
       <c r="J30">
-        <v>0.04205877075004348</v>
+        <v>0.05105086619846956</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N30">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O30">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P30">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q30">
-        <v>247.6027549438017</v>
+        <v>259.0338835910393</v>
       </c>
       <c r="R30">
-        <v>2228.424794494216</v>
+        <v>2331.304952319354</v>
       </c>
       <c r="S30">
-        <v>0.0232341289937757</v>
+        <v>0.03179025225171836</v>
       </c>
       <c r="T30">
-        <v>0.0232341289937757</v>
+        <v>0.03179025225171836</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.108541333333332</v>
+        <v>4.608650333333333</v>
       </c>
       <c r="H31">
-        <v>15.325624</v>
+        <v>13.825951</v>
       </c>
       <c r="I31">
-        <v>0.04205877075004348</v>
+        <v>0.05105086619846956</v>
       </c>
       <c r="J31">
-        <v>0.04205877075004348</v>
+        <v>0.05105086619846956</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N31">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O31">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P31">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q31">
-        <v>15.02778412033688</v>
+        <v>15.041210615047</v>
       </c>
       <c r="R31">
-        <v>135.250057083032</v>
+        <v>135.370895535423</v>
       </c>
       <c r="S31">
-        <v>0.001410151816855872</v>
+        <v>0.001845951089466308</v>
       </c>
       <c r="T31">
-        <v>0.001410151816855872</v>
+        <v>0.001845951089466308</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>35.859806</v>
+        <v>41.00061933333333</v>
       </c>
       <c r="H32">
-        <v>107.579418</v>
+        <v>123.001858</v>
       </c>
       <c r="I32">
-        <v>0.2952348354027935</v>
+        <v>0.4541713908085709</v>
       </c>
       <c r="J32">
-        <v>0.2952348354027935</v>
+        <v>0.454171390808571</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N32">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O32">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P32">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q32">
-        <v>301.0210295425787</v>
+        <v>440.5006226324698</v>
       </c>
       <c r="R32">
-        <v>2709.189265883208</v>
+        <v>3964.505603692229</v>
       </c>
       <c r="S32">
-        <v>0.02824670279544691</v>
+        <v>0.05406098119825137</v>
       </c>
       <c r="T32">
-        <v>0.0282467027954469</v>
+        <v>0.05406098119825137</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>35.859806</v>
+        <v>41.00061933333333</v>
       </c>
       <c r="H33">
-        <v>107.579418</v>
+        <v>123.001858</v>
       </c>
       <c r="I33">
-        <v>0.2952348354027935</v>
+        <v>0.4541713908085709</v>
       </c>
       <c r="J33">
-        <v>0.2952348354027935</v>
+        <v>0.454171390808571</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>32.186352</v>
       </c>
       <c r="O33">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P33">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q33">
-        <v>384.7321128559039</v>
+        <v>439.8867886935573</v>
       </c>
       <c r="R33">
-        <v>3462.589015703136</v>
+        <v>3958.981098242016</v>
       </c>
       <c r="S33">
-        <v>0.03610184200159972</v>
+        <v>0.05398564767242776</v>
       </c>
       <c r="T33">
-        <v>0.03610184200159972</v>
+        <v>0.05398564767242776</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>35.859806</v>
+        <v>41.00061933333333</v>
       </c>
       <c r="H34">
-        <v>107.579418</v>
+        <v>123.001858</v>
       </c>
       <c r="I34">
-        <v>0.2952348354027935</v>
+        <v>0.4541713908085709</v>
       </c>
       <c r="J34">
-        <v>0.2952348354027935</v>
+        <v>0.454171390808571</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N34">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O34">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P34">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q34">
-        <v>88.65256458012533</v>
+        <v>185.207833650056</v>
       </c>
       <c r="R34">
-        <v>797.8730812211279</v>
+        <v>1666.870502850504</v>
       </c>
       <c r="S34">
-        <v>0.008318829576638462</v>
+        <v>0.02272985938791386</v>
       </c>
       <c r="T34">
-        <v>0.008318829576638461</v>
+        <v>0.02272985938791386</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>35.859806</v>
+        <v>41.00061933333333</v>
       </c>
       <c r="H35">
-        <v>107.579418</v>
+        <v>123.001858</v>
       </c>
       <c r="I35">
-        <v>0.2952348354027935</v>
+        <v>0.4541713908085709</v>
       </c>
       <c r="J35">
-        <v>0.2952348354027935</v>
+        <v>0.454171390808571</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N35">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O35">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P35">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q35">
-        <v>528.313628566112</v>
+        <v>196.7970413770698</v>
       </c>
       <c r="R35">
-        <v>4754.822657095008</v>
+        <v>1771.173372393628</v>
       </c>
       <c r="S35">
-        <v>0.04957500169196737</v>
+        <v>0.02415215917330022</v>
       </c>
       <c r="T35">
-        <v>0.04957500169196736</v>
+        <v>0.02415215917330022</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>35.859806</v>
+        <v>41.00061933333333</v>
       </c>
       <c r="H36">
-        <v>107.579418</v>
+        <v>123.001858</v>
       </c>
       <c r="I36">
-        <v>0.2952348354027935</v>
+        <v>0.4541713908085709</v>
       </c>
       <c r="J36">
-        <v>0.2952348354027935</v>
+        <v>0.454171390808571</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N36">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O36">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P36">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q36">
-        <v>1738.066931046385</v>
+        <v>2304.481548260481</v>
       </c>
       <c r="R36">
-        <v>15642.60237941746</v>
+        <v>20740.33393434433</v>
       </c>
       <c r="S36">
-        <v>0.1630937882129508</v>
+        <v>0.2828203349809385</v>
       </c>
       <c r="T36">
-        <v>0.1630937882129508</v>
+        <v>0.2828203349809385</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>35.859806</v>
+        <v>41.00061933333333</v>
       </c>
       <c r="H37">
-        <v>107.579418</v>
+        <v>123.001858</v>
       </c>
       <c r="I37">
-        <v>0.2952348354027935</v>
+        <v>0.4541713908085709</v>
       </c>
       <c r="J37">
-        <v>0.2952348354027935</v>
+        <v>0.454171390808571</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N37">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O37">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P37">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q37">
-        <v>105.4887076373193</v>
+        <v>133.813352312626</v>
       </c>
       <c r="R37">
-        <v>949.3983687358739</v>
+        <v>1204.320170813634</v>
       </c>
       <c r="S37">
-        <v>0.009898671124190269</v>
+        <v>0.01642240839573929</v>
       </c>
       <c r="T37">
-        <v>0.009898671124190267</v>
+        <v>0.01642240839573929</v>
       </c>
     </row>
   </sheetData>
